--- a/FeeDataAdvanced.xlsx
+++ b/FeeDataAdvanced.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D3FA87-47A9-4D86-8016-728BC5432349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="27795" windowHeight="14880" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="139">
   <si>
     <t>Amount</t>
   </si>
@@ -132,9 +133,6 @@
     <t>ResultText</t>
   </si>
   <si>
-    <t>VALIDATION ERROR: Invalid Payment Account Number</t>
-  </si>
-  <si>
     <t>TestNotes</t>
   </si>
   <si>
@@ -433,12 +431,21 @@
   </si>
   <si>
     <t>Request32</t>
+  </si>
+  <si>
+    <t>4358808486916303</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>DualAXFixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,9 +552,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,46 +797,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -856,18 +863,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>524</v>
@@ -891,18 +898,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1">
         <v>524</v>
@@ -926,18 +933,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1">
         <v>524</v>
@@ -961,18 +968,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
         <v>524</v>
@@ -996,18 +1003,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>524</v>
@@ -1031,18 +1038,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1">
         <v>524</v>
@@ -1066,18 +1073,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>524</v>
@@ -1101,18 +1108,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1">
         <v>524</v>
@@ -1133,18 +1140,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1">
         <v>524</v>
@@ -1165,18 +1172,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <v>524</v>
@@ -1197,18 +1204,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1">
         <v>524</v>
@@ -1220,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
@@ -1229,18 +1236,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1">
         <v>524</v>
@@ -1261,18 +1268,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1">
         <v>524</v>
@@ -1293,18 +1300,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1">
         <v>524</v>
@@ -1325,18 +1332,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1">
         <v>524</v>
@@ -1348,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>23</v>
@@ -1357,18 +1364,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1">
         <v>524</v>
@@ -1395,50 +1402,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1465,18 +1475,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>524</v>
@@ -1500,18 +1510,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1">
         <v>524</v>
@@ -1535,18 +1545,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1">
         <v>524</v>
@@ -1570,18 +1580,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
         <v>524</v>
@@ -1605,18 +1615,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>524</v>
@@ -1640,18 +1650,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1">
         <v>524</v>
@@ -1675,33 +1685,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>524</v>
       </c>
       <c r="F8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>20</v>
@@ -1710,21 +1720,21 @@
         <v>8</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1">
         <v>524</v>
@@ -1746,18 +1756,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1">
         <v>524</v>
@@ -1779,18 +1789,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <v>524</v>
@@ -1812,18 +1822,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1">
         <v>524</v>
@@ -1836,7 +1846,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
@@ -1845,18 +1855,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1">
         <v>524</v>
@@ -1878,18 +1888,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1">
         <v>524</v>
@@ -1911,18 +1921,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1">
         <v>524</v>
@@ -1944,18 +1954,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1">
         <v>524</v>
@@ -1968,7 +1978,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>23</v>
@@ -1977,18 +1987,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1">
         <v>524</v>
@@ -2012,18 +2022,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1">
         <v>509</v>
@@ -2047,18 +2057,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1">
         <v>509</v>
@@ -2082,18 +2092,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1">
         <v>509</v>
@@ -2117,18 +2127,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1">
         <v>509</v>
@@ -2152,24 +2162,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="1">
         <v>509</v>
       </c>
       <c r="F22" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2178,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>14</v>
@@ -2187,18 +2197,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1">
         <v>509</v>
@@ -2222,33 +2232,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1">
         <v>509</v>
       </c>
       <c r="F24" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
@@ -2257,21 +2267,21 @@
         <v>8</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="1">
         <v>509</v>
@@ -2293,18 +2303,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1">
         <v>509</v>
@@ -2326,18 +2336,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="1">
         <v>509</v>
@@ -2359,18 +2369,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1">
         <v>509</v>
@@ -2383,7 +2393,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>22</v>
@@ -2392,18 +2402,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="1">
         <v>509</v>
@@ -2425,18 +2435,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1">
         <v>509</v>
@@ -2458,18 +2468,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1">
         <v>509</v>
@@ -2482,7 +2492,7 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>23</v>
@@ -2491,18 +2501,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="1">
         <v>509</v>
@@ -2515,7 +2525,7 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>23</v>
@@ -2524,18 +2534,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="1">
         <v>509</v>
@@ -2550,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>26</v>
@@ -2562,48 +2572,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -2624,18 +2637,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>524</v>
@@ -2657,18 +2670,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1">
         <v>524</v>
@@ -2690,18 +2703,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1">
         <v>524</v>
@@ -2719,27 +2732,27 @@
         <v>27</v>
       </c>
       <c r="J4" s="1">
-        <v>10063</v>
+        <v>50063</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
         <v>524</v>
@@ -2757,27 +2770,27 @@
         <v>27</v>
       </c>
       <c r="J5" s="1">
-        <v>10063</v>
+        <v>50063</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>524</v>
@@ -2801,18 +2814,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1">
         <v>524</v>
@@ -2836,18 +2849,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>524</v>
@@ -2871,18 +2884,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1">
         <v>524</v>
@@ -2906,18 +2919,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1">
         <v>524</v>
@@ -2939,18 +2952,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <v>524</v>
@@ -2972,18 +2985,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1">
         <v>524</v>
@@ -3005,18 +3018,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1">
         <v>524</v>
@@ -3038,18 +3051,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1">
         <v>524</v>
@@ -3073,18 +3086,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1">
         <v>524</v>
@@ -3105,18 +3118,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1">
         <v>524</v>
@@ -3137,18 +3150,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1">
         <v>524</v>
@@ -3167,18 +3180,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1">
         <v>524</v>
@@ -3197,15 +3210,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1">
         <v>524</v>
@@ -3218,18 +3231,18 @@
         <v>50014</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1">
         <v>524</v>
@@ -3242,21 +3255,21 @@
         <v>50014</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
@@ -3266,55 +3279,58 @@
         <v>50016</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -3341,18 +3357,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>509</v>
@@ -3376,18 +3392,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1">
         <v>509</v>
@@ -3411,18 +3427,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1">
         <v>509</v>
@@ -3446,18 +3462,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
         <v>509</v>
@@ -3481,18 +3497,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>509</v>
@@ -3516,18 +3532,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1">
         <v>509</v>
@@ -3551,18 +3567,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>509</v>
@@ -3586,18 +3602,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1">
         <v>509</v>
@@ -3619,18 +3635,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1">
         <v>509</v>
@@ -3652,18 +3668,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <v>509</v>
@@ -3685,18 +3701,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1">
         <v>509</v>
@@ -3709,7 +3725,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
@@ -3718,18 +3734,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1">
         <v>509</v>
@@ -3751,18 +3767,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1">
         <v>509</v>
@@ -3784,18 +3800,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1">
         <v>509</v>
@@ -3817,18 +3833,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1">
         <v>509</v>
@@ -3841,7 +3857,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>23</v>
@@ -3850,18 +3866,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1">
         <v>509</v>
@@ -3888,5 +3904,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>